--- a/FOIT_2123_Projekt/Nutzwertanalyse/Übungsaufgaben/Übungsaufgaben.xlsx
+++ b/FOIT_2123_Projekt/Nutzwertanalyse/Übungsaufgaben/Übungsaufgaben.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\FOIT\FOIT_2123_Projekt\Nutzwertanalyse\Übungsaufgaben\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA8FFAA-28D1-4F40-A823-5C87EE2EFC9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E896339-CB97-420C-893C-22DBF01F3AA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11685" activeTab="1" xr2:uid="{8A4A8FDC-7713-4FF1-A0F5-2DCEF12D895B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11685" activeTab="3" xr2:uid="{8A4A8FDC-7713-4FF1-A0F5-2DCEF12D895B}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgabe 1" sheetId="1" r:id="rId1"/>
     <sheet name="Aufgabe 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Aufgabe 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Aufgabe 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Merkmale</t>
   </si>
@@ -89,16 +91,59 @@
   </si>
   <si>
     <t>Projekt 2</t>
+  </si>
+  <si>
+    <t>Lieferzeit</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Kaufpreis</t>
+  </si>
+  <si>
+    <t>Dichte des Servicenetzes</t>
+  </si>
+  <si>
+    <t>bisherige Erfahrung</t>
+  </si>
+  <si>
+    <t>Brummi</t>
+  </si>
+  <si>
+    <t>Transporter</t>
+  </si>
+  <si>
+    <t>Fassungsvermörgen</t>
+  </si>
+  <si>
+    <t>Strifung Warentest</t>
+  </si>
+  <si>
+    <t>Schleuderleistung</t>
+  </si>
+  <si>
+    <t>AllesClean A 490</t>
+  </si>
+  <si>
+    <t>BuyMe B 59</t>
+  </si>
+  <si>
+    <t>Cleanmaster C 400</t>
+  </si>
+  <si>
+    <t>DeepCleaner D 66V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +162,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,11 +253,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -226,25 +274,34 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -253,7 +310,28 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -574,7 +652,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="C9" sqref="C9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,239 +662,239 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>0.25</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>0</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>0</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>4</v>
       </c>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
         <v>6</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>0.3</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>10</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>3</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>8</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>2.4</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>6</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>1.8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>0.2</v>
       </c>
-      <c r="C5" s="8">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="C5" s="7">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
         <v>10</v>
       </c>
-      <c r="F5" s="7">
-        <v>2</v>
-      </c>
-      <c r="G5" s="8">
-        <v>5</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="F5" s="6">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7">
+        <v>5</v>
+      </c>
+      <c r="H5" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>0.1</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>7.5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>0.75</v>
       </c>
-      <c r="E6" s="8">
-        <v>5</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="E6" s="7">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6">
         <v>0.5</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>6.25</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>0.625</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>0.15</v>
       </c>
-      <c r="C7" s="8">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="C7" s="7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6">
         <v>0.75</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>3</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>0.45</v>
       </c>
-      <c r="G7" s="8">
-        <v>5</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="G7" s="7">
+        <v>5</v>
+      </c>
+      <c r="H7" s="6">
         <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <f>SUM(B3:B7)</f>
         <v>1</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="7">
+      <c r="C8" s="2"/>
+      <c r="D8" s="6">
         <f>SUM(D3:D7)</f>
         <v>5.5</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="7">
+      <c r="E8" s="2"/>
+      <c r="F8" s="6">
         <f>SUM(F3:F7)</f>
         <v>6.3500000000000005</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
         <f>SUM(H3:H7)</f>
         <v>5.6749999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="15">
+      <c r="B9" s="8"/>
+      <c r="C9" s="13">
         <f>D8/10</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="13">
+      <c r="D9" s="13"/>
+      <c r="E9" s="14">
         <f>F8/10</f>
         <v>0.63500000000000001</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="16">
+      <c r="F9" s="15"/>
+      <c r="G9" s="18">
         <f>H8/10</f>
         <v>0.5675</v>
       </c>
-      <c r="H9" s="17"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="9">
+      <c r="B10" s="8"/>
+      <c r="C10" s="12">
         <v>3</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="10">
-        <v>2</v>
-      </c>
-      <c r="H10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="16">
+        <v>1</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="20">
+        <v>2</v>
+      </c>
+      <c r="H10" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -839,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB18FB5C-81A8-456A-9456-D31EEC6FDBB8}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,173 +928,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>0.5</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>3</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <f>$B$3*C3</f>
         <v>1.5</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>7</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <f>$B$3*E3</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>0.3</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>8</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <f>$B$4*C4</f>
         <v>2.4</v>
       </c>
-      <c r="E4" s="8">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
         <f>$B$4*E4</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>0.1</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <f>$B$5*C5</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>8</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <f>$B$5*E5</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>0.1</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>9</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <f>$B$6*C6</f>
         <v>0.9</v>
       </c>
-      <c r="E6" s="8">
-        <v>4</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="E6" s="7">
+        <v>6</v>
+      </c>
+      <c r="F6" s="6">
         <f>$B$6*E6</f>
-        <v>0.4</v>
+        <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <f>SUM(B3:B6)</f>
         <v>1</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="7">
+      <c r="C7" s="2"/>
+      <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>5.1000000000000005</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="7">
+      <c r="E7" s="2"/>
+      <c r="F7" s="6">
         <f>SUM(F3:F6)</f>
-        <v>5</v>
+        <v>5.1999999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="18">
+      <c r="B8" s="8"/>
+      <c r="C8" s="22">
         <f>D7/10</f>
         <v>0.51</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="16">
+      <c r="D8" s="22"/>
+      <c r="E8" s="14">
         <f>F7/10</f>
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="17"/>
+        <v>0.51999999999999991</v>
+      </c>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10">
-        <v>2</v>
-      </c>
-      <c r="F9" s="11"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="23">
+        <v>1</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="16">
+        <v>2</v>
+      </c>
+      <c r="F9" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1029,4 +1107,552 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982BB319-AF83-4727-A603-FBB9877FD23B}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <f>$B3*C3</f>
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6">
+        <f>$B3*E3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" ref="D4:D6" si="0">$B4*C4</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" ref="F4" si="1">$B4*E4</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="E5" s="7">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" ref="F5" si="2">$B5*E5</f>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" ref="F6" si="3">$B6*E6</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6">
+        <f>$B7*C7</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" ref="F7" si="4">$B7*E7</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4">
+        <f>SUM(B3:B7)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="6">
+        <f>SUM(D3:D7)</f>
+        <v>3.1</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="6">
+        <f>SUM(F3:F7)</f>
+        <v>4.1000000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="24">
+        <v>1</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="20">
+        <v>2</v>
+      </c>
+      <c r="F9" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A8E808-0DFB-4227-BD59-03A47E59F8C8}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6">
+        <f>$B3*C3</f>
+        <v>1.5</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6">
+        <f>$B3*E3</f>
+        <v>1.5</v>
+      </c>
+      <c r="G3" s="7">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6">
+        <f>$B3*G3</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6">
+        <f>$B3*I3</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" ref="D4:D8" si="0">$B4*C4</f>
+        <v>0.375</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" ref="F4:F8" si="1">$B4*E4</f>
+        <v>0.25</v>
+      </c>
+      <c r="G4" s="7">
+        <v>4</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" ref="H4:H8" si="2">$B4*G4</f>
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" ref="J4:J8" si="3">$B4*I4</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="G5" s="7">
+        <v>4</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>4</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>5</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="3"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="E8" s="7">
+        <v>3</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G8" s="7">
+        <v>4</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4">
+        <f>SUM(B3:B8)</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="6">
+        <f>SUM(D3:D8)</f>
+        <v>3.0500000000000003</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="6">
+        <f>SUM(F3:F8)</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="6">
+        <f>SUM(H3:H8)</f>
+        <v>3.1</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="6">
+        <f>SUM(J3:J8)</f>
+        <v>3.1000000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="23">
+        <v>2</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="26">
+        <v>3</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="25">
+        <v>1</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="16">
+        <v>1</v>
+      </c>
+      <c r="J10" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FOIT_2123_Projekt/Nutzwertanalyse/Übungsaufgaben/Übungsaufgaben.xlsx
+++ b/FOIT_2123_Projekt/Nutzwertanalyse/Übungsaufgaben/Übungsaufgaben.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\FOIT\FOIT_2123_Projekt\Nutzwertanalyse\Übungsaufgaben\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E896339-CB97-420C-893C-22DBF01F3AA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEF72F7-0D63-4527-8F63-924337059D8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11685" activeTab="3" xr2:uid="{8A4A8FDC-7713-4FF1-A0F5-2DCEF12D895B}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
   <si>
     <t>Merkmale</t>
   </si>
@@ -173,30 +173,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -253,7 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -286,52 +268,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -651,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF519D9-BCB7-482F-B843-D1D2F405FF7C}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,18 +670,21 @@
         <v>0</v>
       </c>
       <c r="D3" s="6">
+        <f>$B3*C3</f>
         <v>0</v>
       </c>
       <c r="E3" s="7">
         <v>4</v>
       </c>
       <c r="F3" s="6">
+        <f>$B3*E3</f>
         <v>1</v>
       </c>
       <c r="G3" s="7">
         <v>6</v>
       </c>
       <c r="H3" s="6">
+        <f>$B3*G3</f>
         <v>1.5</v>
       </c>
     </row>
@@ -740,19 +699,22 @@
         <v>10</v>
       </c>
       <c r="D4" s="6">
+        <f t="shared" ref="D4:D7" si="0">$B4*C4</f>
         <v>3</v>
       </c>
       <c r="E4" s="7">
         <v>8</v>
       </c>
       <c r="F4" s="6">
+        <f t="shared" ref="F4:F7" si="1">$B4*E4</f>
         <v>2.4</v>
       </c>
       <c r="G4" s="7">
         <v>6</v>
       </c>
       <c r="H4" s="6">
-        <v>1.8</v>
+        <f t="shared" ref="H4:H7" si="2">$B4*G4</f>
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -766,18 +728,21 @@
         <v>5</v>
       </c>
       <c r="D5" s="6">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E5" s="7">
         <v>10</v>
       </c>
       <c r="F5" s="6">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G5" s="7">
         <v>5</v>
       </c>
       <c r="H5" s="6">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -792,18 +757,21 @@
         <v>7.5</v>
       </c>
       <c r="D6" s="6">
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="E6" s="7">
         <v>5</v>
       </c>
       <c r="F6" s="6">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="G6" s="7">
         <v>6.25</v>
       </c>
       <c r="H6" s="6">
+        <f t="shared" si="2"/>
         <v>0.625</v>
       </c>
     </row>
@@ -818,18 +786,21 @@
         <v>5</v>
       </c>
       <c r="D7" s="6">
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="E7" s="7">
         <v>3</v>
       </c>
       <c r="F7" s="6">
-        <v>0.45</v>
+        <f t="shared" si="1"/>
+        <v>0.44999999999999996</v>
       </c>
       <c r="G7" s="7">
         <v>5</v>
       </c>
       <c r="H7" s="6">
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
     </row>
@@ -862,39 +833,39 @@
         <v>13</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <f>D8/10</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14">
+      <c r="D9" s="12"/>
+      <c r="E9" s="13">
         <f>F8/10</f>
         <v>0.63500000000000001</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="18">
+      <c r="F9" s="14"/>
+      <c r="G9" s="13">
         <f>H8/10</f>
         <v>0.5675</v>
       </c>
-      <c r="H9" s="19"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="12">
+      <c r="C10" s="15">
         <v>3</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="16">
-        <v>1</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="20">
-        <v>2</v>
-      </c>
-      <c r="H10" s="21"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="15">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="15">
+        <v>2</v>
+      </c>
+      <c r="H10" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -915,10 +886,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB18FB5C-81A8-456A-9456-D31EEC6FDBB8}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D9"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,14 +941,14 @@
         <v>3</v>
       </c>
       <c r="D3" s="6">
-        <f>$B$3*C3</f>
+        <f>$B3*C3</f>
         <v>1.5</v>
       </c>
       <c r="E3" s="7">
         <v>7</v>
       </c>
       <c r="F3" s="6">
-        <f>$B$3*E3</f>
+        <f>$B3*E3</f>
         <v>3.5</v>
       </c>
     </row>
@@ -992,14 +963,14 @@
         <v>8</v>
       </c>
       <c r="D4" s="6">
-        <f>$B$4*C4</f>
+        <f>$B4*C4</f>
         <v>2.4</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
       </c>
       <c r="F4" s="6">
-        <f>$B$4*E4</f>
+        <f>$B4*E4</f>
         <v>0.3</v>
       </c>
     </row>
@@ -1014,14 +985,14 @@
         <v>3</v>
       </c>
       <c r="D5" s="6">
-        <f>$B$5*C5</f>
+        <f>$B5*C5</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="E5" s="7">
         <v>8</v>
       </c>
       <c r="F5" s="6">
-        <f>$B$5*E5</f>
+        <f>$B5*E5</f>
         <v>0.8</v>
       </c>
     </row>
@@ -1036,14 +1007,14 @@
         <v>9</v>
       </c>
       <c r="D6" s="6">
-        <f>$B$6*C6</f>
+        <f>$B6*C6</f>
         <v>0.9</v>
       </c>
       <c r="E6" s="7">
         <v>6</v>
       </c>
       <c r="F6" s="6">
-        <f>$B$6*E6</f>
+        <f>$B6*E6</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
@@ -1071,30 +1042,36 @@
         <v>13</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="22">
+      <c r="C8" s="12">
         <f>D7/10</f>
         <v>0.51</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="14">
+      <c r="D8" s="12"/>
+      <c r="E8" s="13">
         <f>F7/10</f>
         <v>0.51999999999999991</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="23">
-        <v>1</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="16">
-        <v>2</v>
-      </c>
-      <c r="F9" s="17"/>
+      <c r="C9" s="17">
+        <v>2</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1113,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982BB319-AF83-4727-A603-FBB9877FD23B}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,14 +1266,14 @@
         <v>14</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="24">
-        <v>1</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="20">
-        <v>2</v>
-      </c>
-      <c r="F9" s="21"/>
+      <c r="C9" s="17">
+        <v>1</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="15">
+        <v>2</v>
+      </c>
+      <c r="F9" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1313,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A8E808-0DFB-4227-BD59-03A47E59F8C8}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1625,22 +1602,22 @@
         <v>14</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="23">
-        <v>2</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="26">
+      <c r="C10" s="17">
+        <v>2</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="15">
         <v>3</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="25">
-        <v>1</v>
-      </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="16">
-        <v>1</v>
-      </c>
-      <c r="J10" s="17"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="19">
+        <v>1</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="15">
+        <v>1</v>
+      </c>
+      <c r="J10" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="8">
